--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="Rc07e1e5d1c144e79"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="R9d05937432474814"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R55db58e68ac64f90"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R36eeda0935284e95"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R976cce6c0abc4f04"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2dab4d6c48cd464f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="R9d05937432474814"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="Rf66b655f4f9e4533"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R36eeda0935284e95"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R75fb135361f34f6f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2dab4d6c48cd464f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R874829de36fd4693"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="Rf66b655f4f9e4533"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="R355628e278764246"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R75fb135361f34f6f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8aa5921b6dbd4b24"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R874829de36fd4693"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rce071a3620314322"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="R355628e278764246"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="R8854c3784c7b440e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8aa5921b6dbd4b24"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R27d49844aa504580"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rce071a3620314322"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8d25ee7389a74b7f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="R8854c3784c7b440e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="R5356dfa91df5414d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R27d49844aa504580"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2568de0b451246a3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8d25ee7389a74b7f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4ca517c8093c4537"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="R5356dfa91df5414d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="R291035b4214a4bea"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2568de0b451246a3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R15943ef3832c4e84"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4ca517c8093c4537"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf6f77a646aca47f6"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="R291035b4214a4bea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="R18671124102843e9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R15943ef3832c4e84"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re70f430220e8412c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf6f77a646aca47f6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbf5c71efa7884dc9"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="R18671124102843e9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="R8e5e1ab124564bd7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re70f430220e8412c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R69bf04ea503344a1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbf5c71efa7884dc9"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0ba2f6c1731349a0"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="R8e5e1ab124564bd7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="R59842944823b4aad"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R69bf04ea503344a1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4b65d682931e487b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0ba2f6c1731349a0"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R45552c9859164909"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="R59842944823b4aad"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="R348047b4ebb24b26"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4b65d682931e487b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfebec905b88f46a6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R45552c9859164909"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8a834791fc8c418f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="R348047b4ebb24b26"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="R24d08f8a99a94110"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfebec905b88f46a6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf3cc5b8df5db4c53"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8a834791fc8c418f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re03485be41a34a2b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="R24d08f8a99a94110"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="R3316a9ff807f4924"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf3cc5b8df5db4c53"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R51dae41d57b8409e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re03485be41a34a2b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2fc6921f3c3a4689"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/098_LineChartMultipleSeriesWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="R3316a9ff807f4924"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Department Performance" sheetId="1" r:id="R56920a603d3944fc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R51dae41d57b8409e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R18f4ec8f66104723"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2fc6921f3c3a4689"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1d8d0364ba854048"/>
 </x:worksheet>
 </file>